--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -572,7 +572,7 @@
         <v>43609</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43846</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>43503</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44949</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>43425</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43469</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43474</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>43496</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>43503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>43503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>43503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>43503</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43654</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43657</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43753</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43819</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43843</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43846</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43941</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44014</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44014</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44082</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44085</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>44088</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44088</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>44118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44210</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44216</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44896</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44910</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44931</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44973</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44973</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>45062</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -572,7 +572,7 @@
         <v>43609</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43846</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>43503</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44949</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>43425</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43469</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43474</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>43496</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>43503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>43503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>43503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>43503</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43654</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43657</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43753</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43819</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43843</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43846</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43941</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44014</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44014</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44082</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44085</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>44088</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44088</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>44118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44210</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44216</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44896</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44910</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44931</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44973</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44973</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>45062</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -572,7 +572,7 @@
         <v>43609</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43846</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>43503</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44949</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>43425</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43469</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43474</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>43496</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>43503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>43503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>43503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>43503</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43654</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43657</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43753</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43819</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43843</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43846</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43941</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44014</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44014</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44082</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44085</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>44088</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44088</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>44118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44210</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44216</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44896</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44910</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44931</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44973</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44973</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>45062</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -572,7 +572,7 @@
         <v>43609</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43846</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>43503</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44949</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>43425</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43469</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43474</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>43496</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>43503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>43503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>43503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>43503</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43654</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43657</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43753</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43819</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43843</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43846</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43941</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44014</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44014</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44082</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44085</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>44088</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44088</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>44118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44210</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44216</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44896</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44910</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44931</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44973</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44973</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>45062</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -572,7 +572,7 @@
         <v>43609</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43846</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>43503</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44949</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>43425</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43469</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43474</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>43496</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>43503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>43503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>43503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>43503</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43654</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43657</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43753</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43819</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43843</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43846</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43941</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44014</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44014</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44082</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44085</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>44088</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44088</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>44118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44210</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44216</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44896</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44910</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44931</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44973</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44973</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>45062</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -572,7 +572,7 @@
         <v>43609</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43846</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>43503</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44949</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>43425</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43469</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43474</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>43496</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>43503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>43503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>43503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>43503</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43654</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43657</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43753</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43819</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43843</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43846</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43941</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44014</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44014</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44082</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44085</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>44088</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44088</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>44118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44210</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44216</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44896</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44910</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44931</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44973</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44973</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>45062</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -572,7 +572,7 @@
         <v>43609</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43846</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>43503</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44949</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>43425</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43469</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43474</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>43496</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>43503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>43503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>43503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>43503</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43654</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43657</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43753</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43819</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43843</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43846</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43941</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44014</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44014</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44082</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44085</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>44088</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44088</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>44118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44210</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44216</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44896</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44910</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44931</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44973</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44973</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>45062</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -572,7 +572,7 @@
         <v>43609</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43846</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>43503</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44949</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>43425</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43469</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43474</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>43496</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>43503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>43503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>43503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>43503</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43654</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43657</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43753</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43819</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43843</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43846</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43941</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44014</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44014</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44082</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44085</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>44088</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44088</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>44118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44210</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44216</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44896</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44910</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44931</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44973</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44973</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>45062</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -572,7 +572,7 @@
         <v>43609</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43846</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>43503</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44949</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>43425</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43469</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43474</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>43496</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>43503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>43503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>43503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>43503</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43654</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43657</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43753</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43819</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43843</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43846</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43941</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44014</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44014</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44082</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44085</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>44088</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44088</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>44118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44210</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44216</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44896</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44910</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44931</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44973</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44973</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>45062</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -572,7 +572,7 @@
         <v>43609</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -624,27 +624,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/artfynd/A 26114-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/artfynd/A 26114-2019.xlsx", "A 26114-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/kartor/A 26114-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/kartor/A 26114-2019.png", "A 26114-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/klagomål/A 26114-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/klagomål/A 26114-2019.docx", "A 26114-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/klagomålsmail/A 26114-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/klagomålsmail/A 26114-2019.docx", "A 26114-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/tillsyn/A 26114-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/tillsyn/A 26114-2019.docx", "A 26114-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/tillsynsmail/A 26114-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/tillsynsmail/A 26114-2019.docx", "A 26114-2019")</f>
         <v/>
       </c>
     </row>
@@ -658,7 +658,7 @@
         <v>43846</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -710,27 +710,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/artfynd/A 2233-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/artfynd/A 2233-2020.xlsx", "A 2233-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/kartor/A 2233-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/kartor/A 2233-2020.png", "A 2233-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/klagomål/A 2233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/klagomål/A 2233-2020.docx", "A 2233-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/klagomålsmail/A 2233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/klagomålsmail/A 2233-2020.docx", "A 2233-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/tillsyn/A 2233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/tillsyn/A 2233-2020.docx", "A 2233-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/tillsynsmail/A 2233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/tillsynsmail/A 2233-2020.docx", "A 2233-2020")</f>
         <v/>
       </c>
     </row>
@@ -744,7 +744,7 @@
         <v>44085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -796,27 +796,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/artfynd/A 44608-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/artfynd/A 44608-2020.xlsx", "A 44608-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/kartor/A 44608-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/kartor/A 44608-2020.png", "A 44608-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/klagomål/A 44608-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/klagomål/A 44608-2020.docx", "A 44608-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/klagomålsmail/A 44608-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/klagomålsmail/A 44608-2020.docx", "A 44608-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/tillsyn/A 44608-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/tillsyn/A 44608-2020.docx", "A 44608-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/tillsynsmail/A 44608-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/tillsynsmail/A 44608-2020.docx", "A 44608-2020")</f>
         <v/>
       </c>
     </row>
@@ -830,7 +830,7 @@
         <v>43503</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -881,27 +881,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/artfynd/A 8657-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/artfynd/A 8657-2019.xlsx", "A 8657-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/kartor/A 8657-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/kartor/A 8657-2019.png", "A 8657-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/klagomål/A 8657-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/klagomål/A 8657-2019.docx", "A 8657-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/klagomålsmail/A 8657-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/klagomålsmail/A 8657-2019.docx", "A 8657-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/tillsyn/A 8657-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/tillsyn/A 8657-2019.docx", "A 8657-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/tillsynsmail/A 8657-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/tillsynsmail/A 8657-2019.docx", "A 8657-2019")</f>
         <v/>
       </c>
     </row>
@@ -915,7 +915,7 @@
         <v>44949</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -966,27 +966,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/artfynd/A 3272-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/artfynd/A 3272-2023.xlsx", "A 3272-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/kartor/A 3272-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/kartor/A 3272-2023.png", "A 3272-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/klagomål/A 3272-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/klagomål/A 3272-2023.docx", "A 3272-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/klagomålsmail/A 3272-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/klagomålsmail/A 3272-2023.docx", "A 3272-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/tillsyn/A 3272-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/tillsyn/A 3272-2023.docx", "A 3272-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/tillsynsmail/A 3272-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TJORN/tillsynsmail/A 3272-2023.docx", "A 3272-2023")</f>
         <v/>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
         <v>43425</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43469</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43474</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>43496</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>43503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>43503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>43503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>43503</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43654</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43657</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43753</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43819</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43843</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43846</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43941</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44014</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44014</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44082</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44085</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>44088</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44088</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>44118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44210</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44216</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44896</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44910</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44931</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44973</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44973</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>45062</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -572,7 +572,7 @@
         <v>43609</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43846</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>43503</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44949</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>43425</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43469</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43474</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>43496</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>43503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>43503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>43503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>43503</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43654</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43657</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43753</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43819</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43843</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43846</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43941</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44014</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44014</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44082</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44085</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>44088</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44088</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>44118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44210</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44216</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44896</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44910</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44931</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44973</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44973</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>45062</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -572,7 +572,7 @@
         <v>43609</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43846</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>43503</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44949</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>43425</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43469</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43474</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>43496</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>43503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>43503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>43503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>43503</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43654</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43657</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43753</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43819</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43843</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43846</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43941</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44014</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44014</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44082</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44085</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>44088</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44088</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>44118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44210</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44216</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44896</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44910</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44931</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44973</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44973</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>45062</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -572,7 +572,7 @@
         <v>43609</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43846</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>43503</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44949</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>43425</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43469</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43474</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>43496</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>43503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>43503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>43503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>43503</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43654</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43657</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43753</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43819</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43843</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43846</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43941</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44014</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44014</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44082</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44085</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>44088</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44088</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>44118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44210</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44216</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44896</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44910</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44931</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44973</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44973</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>45062</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -572,7 +572,7 @@
         <v>43609</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43846</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>43503</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44949</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>43425</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43469</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43474</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>43496</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>43503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>43503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>43503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>43503</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43654</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43657</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43753</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43819</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43843</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43846</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43941</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44014</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44014</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44082</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44085</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>44088</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44088</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>44118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44210</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44216</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44896</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44910</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44931</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44973</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44973</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>45062</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -572,7 +572,7 @@
         <v>43609</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43846</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>43503</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44949</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>43425</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43469</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43474</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>43496</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>43503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>43503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>43503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>43503</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43654</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43657</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43753</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43819</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43843</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43846</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43941</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44014</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44014</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44082</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44085</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>44088</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44088</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>44118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44210</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44216</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44896</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44910</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44931</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44973</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44973</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>45062</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -572,7 +572,7 @@
         <v>43609</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43846</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>43503</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44949</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>43425</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43469</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43474</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>43496</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>43503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>43503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>43503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>43503</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43654</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43657</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43753</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43819</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43843</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43846</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43941</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44014</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44014</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44082</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44085</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>44088</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44088</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>44118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44210</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44216</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44896</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44910</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44931</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44973</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44973</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>45062</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -572,7 +572,7 @@
         <v>43609</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43846</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>43503</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44949</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>43425</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43469</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43474</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>43496</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>43503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>43503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>43503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>43503</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43654</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43657</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43753</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43819</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43843</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43846</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43941</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44014</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44014</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44082</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44085</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>44088</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44088</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>44118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44210</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44216</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44896</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44910</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44931</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44973</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44973</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>45062</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt TJÖRN.xlsx
+++ b/Översikt TJÖRN.xlsx
@@ -572,7 +572,7 @@
         <v>43609</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43846</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>43503</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44949</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>43425</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>43469</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43474</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>43496</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>43503</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>43503</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>43503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>43503</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>43519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43654</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43657</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43753</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>43819</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43843</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>43846</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>43861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>43941</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44014</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44014</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44082</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44085</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>44088</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44088</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>44118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>44210</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44216</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44896</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44896</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44910</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44931</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44973</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44973</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>45062</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
